--- a/Basededatos/ACE.xlsx
+++ b/Basededatos/ACE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD/Basededatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{54CCF355-B669-4A55-B469-2E2029C968D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81C902C-7CB5-45D5-BDCB-3682FB0FCF72}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{54CCF355-B669-4A55-B469-2E2029C968D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{63ABF19F-90ED-4E2D-AC8E-582DEF896E59}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C10EAC8-D6A0-4176-B5EA-775E773107AC}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -527,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B0666A-AB9C-465D-B5C8-955785450364}">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,8 +1215,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E23"/>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
